--- a/Room_Lab_B                                             .xlsx
+++ b/Room_Lab_B                                             .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim\Desktop\sitting-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{204AB5DE-C8CE-4866-ACC1-EDA8940DDD95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DA2F23-B3DA-41C6-887C-204B935D9E0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{5C375DAA-06BA-4DCB-A7CA-1D4C3461030C}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{AC731385-AC87-467E-8300-82F5B7F30209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38CDA02-BD37-40EE-A055-B8CF9BCE33C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36934A0-CEAC-429E-A293-EC3B7B931CD1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -384,58 +384,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1">
-        <v>45787</v>
+        <v>45555</v>
       </c>
       <c r="C1">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D1">
-        <v>32222</v>
+        <v>34511</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>45796</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34511</v>
+        <v>35487</v>
       </c>
       <c r="B3">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>45666</v>
+        <v>47895</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4">
-        <v>31111</v>
+        <v>35489</v>
       </c>
       <c r="D4">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/Room_Lab_B                                             .xlsx
+++ b/Room_Lab_B                                             .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim\Desktop\sitting-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DA2F23-B3DA-41C6-887C-204B935D9E0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD522378-0444-47EE-AE87-B5226800C5D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{AC731385-AC87-467E-8300-82F5B7F30209}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{D190D702-D9E8-4267-BD77-FE5DCA7A6D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36934A0-CEAC-429E-A293-EC3B7B931CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55076F2-26F7-40D5-BB12-1F03BAA37637}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
